--- a/config_3.9/fish_3d_yutu_random_2.xlsx
+++ b/config_3.9/fish_3d_yutu_random_2.xlsx
@@ -361,14 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>167,168,169,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,6 +434,12 @@
   <si>
     <t>巨</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss</t>
   </si>
 </sst>
 </file>
@@ -513,7 +511,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,19 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +562,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -623,9 +609,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -634,19 +617,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1206,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1217,8 +1194,8 @@
     <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="8" width="41.25" style="10" customWidth="1"/>
-    <col min="9" max="9" width="22.375" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1246,10 +1223,10 @@
       <c r="H1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="24" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1275,8 +1252,8 @@
       <c r="H2" s="10">
         <v>1</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
@@ -1300,8 +1277,8 @@
       <c r="H3" s="10">
         <v>1</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
@@ -1325,8 +1302,8 @@
       <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
@@ -1347,8 +1324,8 @@
       <c r="F5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
@@ -1369,8 +1346,8 @@
       <c r="F6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
@@ -1473,8 +1450,8 @@
       <c r="F11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
@@ -1495,8 +1472,8 @@
       <c r="F12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
@@ -1517,8 +1494,8 @@
       <c r="F13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
@@ -1604,419 +1581,399 @@
       <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="25">
+      <c r="B18" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="26">
         <v>200</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="26">
         <v>300</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="32">
-        <v>1614643200</v>
-      </c>
-      <c r="J18" s="32">
-        <v>1615219199</v>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="28">
+        <v>1615248000</v>
+      </c>
+      <c r="J18" s="28">
+        <v>1615823999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="25">
+      <c r="B19" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="26">
         <v>200</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="26">
         <v>300</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="32">
-        <v>1614643200</v>
-      </c>
-      <c r="J19" s="32">
-        <v>1615219199</v>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="28">
+        <v>1615248000</v>
+      </c>
+      <c r="J19" s="28">
+        <v>1615823999</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="25">
+      <c r="B20" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="26">
         <v>200</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="26">
         <v>300</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="32">
-        <v>1614643200</v>
-      </c>
-      <c r="J20" s="32">
-        <v>1615219199</v>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="28">
+        <v>1615248000</v>
+      </c>
+      <c r="J20" s="28">
+        <v>1615823999</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="25">
+      <c r="B21" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="26">
         <v>200</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="26">
         <v>300</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="32">
-        <v>1614643200</v>
-      </c>
-      <c r="J21" s="32">
-        <v>1615219199</v>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="28">
+        <v>1615248000</v>
+      </c>
+      <c r="J21" s="28">
+        <v>1615823999</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="26" t="s">
+      <c r="B22" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="26">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="26">
+        <v>6000</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="28">
+        <v>1615248000</v>
+      </c>
+      <c r="J22" s="28">
+        <v>1615823999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25">
+        <v>22</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="25">
+      <c r="C23" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="25">
+        <v>200</v>
+      </c>
+      <c r="E23" s="25">
+        <v>300</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="23">
+        <v>1613433600</v>
+      </c>
+      <c r="J23" s="23">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25">
+        <v>23</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="25">
+        <v>200</v>
+      </c>
+      <c r="E24" s="25">
+        <v>300</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="23">
+        <v>1613433600</v>
+      </c>
+      <c r="J24" s="23">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="25">
+        <v>200</v>
+      </c>
+      <c r="E25" s="25">
+        <v>300</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="23">
+        <v>1613433600</v>
+      </c>
+      <c r="J25" s="23">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25">
+        <v>25</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="25">
+        <v>200</v>
+      </c>
+      <c r="E26" s="25">
+        <v>300</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="23">
+        <v>1613433600</v>
+      </c>
+      <c r="J26" s="23">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="25">
+        <v>26</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="25">
         <v>3000</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E27" s="25">
         <v>6000</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F27" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="32">
-        <v>1614643200</v>
-      </c>
-      <c r="J22" s="32">
-        <v>1615219199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
-        <v>22</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="28" t="s">
+      <c r="I27" s="23">
+        <v>1613433600</v>
+      </c>
+      <c r="J27" s="23">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="25">
+        <v>27</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="25">
+        <v>200</v>
+      </c>
+      <c r="E28" s="25">
+        <v>300</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="23">
+        <v>1614038400</v>
+      </c>
+      <c r="J28" s="23">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="25">
+        <v>28</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="25">
+        <v>200</v>
+      </c>
+      <c r="E29" s="25">
+        <v>300</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="23">
+        <v>1614038400</v>
+      </c>
+      <c r="J29" s="23">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="25">
+        <v>29</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="25">
+        <v>200</v>
+      </c>
+      <c r="E30" s="25">
+        <v>300</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="23">
+        <v>1614038400</v>
+      </c>
+      <c r="J30" s="23">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="25">
+        <v>30</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="25">
+        <v>200</v>
+      </c>
+      <c r="E31" s="25">
+        <v>300</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="23">
+        <v>1614038400</v>
+      </c>
+      <c r="J31" s="23">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="25">
+        <v>31</v>
+      </c>
+      <c r="B32" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="27">
-        <v>200</v>
-      </c>
-      <c r="E23" s="27">
-        <v>300</v>
-      </c>
-      <c r="F23" s="27" t="s">
+      <c r="C32" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="25">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="25">
+        <v>6000</v>
+      </c>
+      <c r="F32" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="20">
-        <v>1613433600</v>
-      </c>
-      <c r="J23" s="20">
-        <v>1614009599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <v>23</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="27">
-        <v>200</v>
-      </c>
-      <c r="E24" s="27">
-        <v>300</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="20">
-        <v>1613433600</v>
-      </c>
-      <c r="J24" s="20">
-        <v>1614009599</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
-        <v>24</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="27">
-        <v>200</v>
-      </c>
-      <c r="E25" s="27">
-        <v>300</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="20">
-        <v>1613433600</v>
-      </c>
-      <c r="J25" s="20">
-        <v>1614009599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>25</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="27">
-        <v>200</v>
-      </c>
-      <c r="E26" s="27">
-        <v>300</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="20">
-        <v>1613433600</v>
-      </c>
-      <c r="J26" s="20">
-        <v>1614009599</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>26</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="27">
-        <v>3000</v>
-      </c>
-      <c r="E27" s="27">
-        <v>6000</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="20">
-        <v>1613433600</v>
-      </c>
-      <c r="J27" s="20">
-        <v>1614009599</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <v>27</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="29">
-        <v>200</v>
-      </c>
-      <c r="E28" s="29">
-        <v>300</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="33">
+      <c r="I32" s="23">
         <v>1614038400</v>
       </c>
-      <c r="J28" s="33">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <v>28</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="29">
-        <v>200</v>
-      </c>
-      <c r="E29" s="29">
-        <v>300</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="33">
-        <v>1614038400</v>
-      </c>
-      <c r="J29" s="33">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
-        <v>29</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="29">
-        <v>200</v>
-      </c>
-      <c r="E30" s="29">
-        <v>300</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="33">
-        <v>1614038400</v>
-      </c>
-      <c r="J30" s="33">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
-        <v>30</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="29">
-        <v>200</v>
-      </c>
-      <c r="E31" s="29">
-        <v>300</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="33">
-        <v>1614038400</v>
-      </c>
-      <c r="J31" s="33">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
-        <v>31</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="29">
-        <v>3000</v>
-      </c>
-      <c r="E32" s="29">
-        <v>6000</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="33">
-        <v>1614038400</v>
-      </c>
-      <c r="J32" s="33">
+      <c r="J32" s="23">
         <v>1614614399</v>
       </c>
     </row>
@@ -2476,7 +2433,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="24"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -2486,7 +2443,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="24"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
@@ -2496,7 +2453,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="24"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
@@ -2506,7 +2463,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -2757,86 +2714,86 @@
       <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
-      <c r="B7" s="21"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
-      <c r="B8" s="21"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
-      <c r="B9" s="22"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>

--- a/config_3.9/fish_3d_yutu_random_2.xlsx
+++ b/config_3.9/fish_3d_yutu_random_2.xlsx
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1703,7 +1703,7 @@
         <v>3000</v>
       </c>
       <c r="E22" s="26">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F22" s="26" t="s">
         <v>47</v>
@@ -1835,7 +1835,7 @@
         <v>3000</v>
       </c>
       <c r="E27" s="25">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>47</v>
@@ -1965,7 +1965,7 @@
         <v>3000</v>
       </c>
       <c r="E32" s="25">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>47</v>
